--- a/jyx2/Assets/Mods/jhz/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/人物.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\GitHub\github-jynew\jyx2\Assets\Mods\jhz\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05E8879-1158-4467-8B8A-5EFAAC202431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="1590" windowWidth="19140" windowHeight="11168"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="491">
   <si>
     <t>Id</t>
   </si>
@@ -1525,12 +1531,16 @@
   <si>
     <t>洪七公</t>
   </si>
+  <si>
+    <t>小二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1584,6 +1594,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1619,7 +1636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,13 +1658,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1992,22 +2010,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D74"/>
+      <pane ySplit="4" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.06640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.73046875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.08984375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>430</v>
       </c>
@@ -2015,7 +2034,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +2162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>426</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2374,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2608,7 +2627,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2736,7 +2755,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2986,7 +3005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3111,7 +3130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -3361,7 +3380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -3486,7 +3505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -3614,7 +3633,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -3739,7 +3758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -3864,7 +3883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -3989,7 +4008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -4114,7 +4133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -4239,7 +4258,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -4364,7 +4383,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -4492,7 +4511,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -4620,7 +4639,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -4745,7 +4764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4870,7 +4889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -5120,7 +5139,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5245,7 +5264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -5370,7 +5389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -5623,7 +5642,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -5748,7 +5767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -6001,7 +6020,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -6129,7 +6148,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -6254,7 +6273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -6504,7 +6523,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -6629,7 +6648,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -7010,7 +7029,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -7138,7 +7157,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -7266,7 +7285,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -7391,7 +7410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -7516,7 +7535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -7641,7 +7660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -7766,7 +7785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -7891,7 +7910,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -8019,7 +8038,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -8147,7 +8166,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -8272,7 +8291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -8400,7 +8419,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -8528,7 +8547,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -8656,7 +8675,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -8781,7 +8800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -8909,7 +8928,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -9034,7 +9053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -9162,7 +9181,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -9290,7 +9309,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -9415,7 +9434,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -9540,7 +9559,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -9665,7 +9684,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -9793,7 +9812,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -9921,7 +9940,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -10046,7 +10065,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -10174,7 +10193,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -10299,7 +10318,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -10427,7 +10446,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -10552,7 +10571,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -10677,7 +10696,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -10802,7 +10821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -10927,7 +10946,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -11052,7 +11071,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -11177,7 +11196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -11302,7 +11321,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -11427,7 +11446,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -11552,7 +11571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -11677,7 +11696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -11802,7 +11821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -11927,7 +11946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -12055,7 +12074,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -12180,7 +12199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="13.9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:42" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -12305,7 +12324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -12430,7 +12449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -12555,7 +12574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -12680,7 +12699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -12805,7 +12824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -12930,7 +12949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -13055,7 +13074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -13180,7 +13199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -13305,7 +13324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -13430,7 +13449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -13555,7 +13574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -13680,7 +13699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -13805,7 +13824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -13930,7 +13949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -14055,7 +14074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -14180,7 +14199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -14305,7 +14324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -14430,7 +14449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -14555,7 +14574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -14680,7 +14699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -14805,7 +14824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -14930,7 +14949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -15055,7 +15074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -15180,7 +15199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -15305,7 +15324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -15430,7 +15449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -15555,7 +15574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -15680,7 +15699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -15805,7 +15824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -15930,7 +15949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -16055,7 +16074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -16180,7 +16199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -16305,7 +16324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -16430,7 +16449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -16555,7 +16574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -16680,7 +16699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -16805,7 +16824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -16930,7 +16949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -17055,7 +17074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -17180,7 +17199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -17305,7 +17324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -17430,7 +17449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -17555,7 +17574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -17680,7 +17699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -17805,7 +17824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -17930,7 +17949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -18055,7 +18074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -18180,7 +18199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -18305,7 +18324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -18430,7 +18449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -18555,7 +18574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -18680,7 +18699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -18805,7 +18824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -18930,7 +18949,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -19055,7 +19074,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -19180,7 +19199,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -19305,7 +19324,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -19430,7 +19449,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -19555,7 +19574,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -19680,7 +19699,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -19805,7 +19824,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -19930,7 +19949,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -20055,7 +20074,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -20180,7 +20199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -20305,7 +20324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -20430,7 +20449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -20555,7 +20574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -20680,7 +20699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -20805,7 +20824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -20930,7 +20949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -21055,7 +21074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -21180,7 +21199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -21305,7 +21324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -21430,7 +21449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -21555,7 +21574,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -21680,7 +21699,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -21805,7 +21824,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -21930,7 +21949,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -22055,7 +22074,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -22180,7 +22199,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -22305,7 +22324,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -22430,7 +22449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -22555,7 +22574,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -22680,7 +22699,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -22805,7 +22824,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -22930,7 +22949,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -23055,7 +23074,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -23180,7 +23199,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -23305,7 +23324,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -23430,7 +23449,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -23555,7 +23574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -23680,7 +23699,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -23805,7 +23824,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -23930,7 +23949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -24055,7 +24074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -24180,7 +24199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -24305,7 +24324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -24430,7 +24449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -24555,7 +24574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -24680,7 +24699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -24805,7 +24824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -24930,7 +24949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -25055,7 +25074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -25180,7 +25199,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -25305,7 +25324,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -25430,7 +25449,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -25555,7 +25574,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -25680,7 +25699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -25805,7 +25824,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -25930,7 +25949,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -26055,7 +26074,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -26180,7 +26199,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -26305,7 +26324,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -26430,7 +26449,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -26555,7 +26574,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -26680,7 +26699,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -26805,7 +26824,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -26930,7 +26949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -27055,7 +27074,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -27180,7 +27199,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -27305,7 +27324,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>199</v>
       </c>
@@ -27430,7 +27449,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>200</v>
       </c>
@@ -27555,7 +27574,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>201</v>
       </c>
@@ -27680,7 +27699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>202</v>
       </c>
@@ -27805,7 +27824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>203</v>
       </c>
@@ -27930,7 +27949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>204</v>
       </c>
@@ -28055,7 +28074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>205</v>
       </c>
@@ -28180,7 +28199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>206</v>
       </c>
@@ -28305,7 +28324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>207</v>
       </c>
@@ -28430,7 +28449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>208</v>
       </c>
@@ -28555,7 +28574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>209</v>
       </c>
@@ -28680,7 +28699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>210</v>
       </c>
@@ -28805,7 +28824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>211</v>
       </c>
@@ -28930,7 +28949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>212</v>
       </c>
@@ -29055,7 +29074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>213</v>
       </c>
@@ -29180,7 +29199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>214</v>
       </c>
@@ -29305,7 +29324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>215</v>
       </c>
@@ -29430,7 +29449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>216</v>
       </c>
@@ -29555,7 +29574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>217</v>
       </c>
@@ -29680,7 +29699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>218</v>
       </c>
@@ -29805,7 +29824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>219</v>
       </c>
@@ -29930,7 +29949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>220</v>
       </c>
@@ -30055,7 +30074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>221</v>
       </c>
@@ -30180,7 +30199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>222</v>
       </c>
@@ -30305,7 +30324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>223</v>
       </c>
@@ -30430,7 +30449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>224</v>
       </c>
@@ -30555,7 +30574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>225</v>
       </c>
@@ -30680,7 +30699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>226</v>
       </c>
@@ -30805,7 +30824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>227</v>
       </c>
@@ -30930,7 +30949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>228</v>
       </c>
@@ -31055,7 +31074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>229</v>
       </c>
@@ -31180,7 +31199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>230</v>
       </c>
@@ -31305,7 +31324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>231</v>
       </c>
@@ -31430,7 +31449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>232</v>
       </c>
@@ -31555,7 +31574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>233</v>
       </c>
@@ -31680,7 +31699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>234</v>
       </c>
@@ -31805,7 +31824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>235</v>
       </c>
@@ -31930,7 +31949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>236</v>
       </c>
@@ -32055,7 +32074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>237</v>
       </c>
@@ -32180,7 +32199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>238</v>
       </c>
@@ -32305,7 +32324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>239</v>
       </c>
@@ -32430,7 +32449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -32555,7 +32574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>241</v>
       </c>
@@ -32680,7 +32699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>242</v>
       </c>
@@ -32805,7 +32824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>243</v>
       </c>
@@ -32930,7 +32949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>244</v>
       </c>
@@ -33055,7 +33074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>245</v>
       </c>
@@ -33180,7 +33199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>246</v>
       </c>
@@ -33305,7 +33324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>247</v>
       </c>
@@ -33430,7 +33449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>248</v>
       </c>
@@ -33555,7 +33574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>249</v>
       </c>
@@ -33680,7 +33699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>250</v>
       </c>
@@ -33805,7 +33824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>251</v>
       </c>
@@ -33930,7 +33949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>252</v>
       </c>
@@ -34055,7 +34074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>253</v>
       </c>
@@ -34180,7 +34199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>254</v>
       </c>
@@ -34305,7 +34324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>255</v>
       </c>
@@ -34430,7 +34449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>256</v>
       </c>
@@ -34555,7 +34574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>257</v>
       </c>
@@ -34680,7 +34699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>258</v>
       </c>
@@ -34805,7 +34824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>259</v>
       </c>
@@ -34930,7 +34949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>260</v>
       </c>
@@ -35055,7 +35074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>261</v>
       </c>
@@ -35180,7 +35199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>262</v>
       </c>
@@ -35305,7 +35324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>263</v>
       </c>
@@ -35430,7 +35449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>264</v>
       </c>
@@ -35555,7 +35574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>265</v>
       </c>
@@ -35680,7 +35699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>266</v>
       </c>
@@ -35805,7 +35824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>267</v>
       </c>
@@ -35930,7 +35949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>268</v>
       </c>
@@ -36055,7 +36074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>269</v>
       </c>
@@ -36180,7 +36199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>270</v>
       </c>
@@ -36305,7 +36324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>271</v>
       </c>
@@ -36430,7 +36449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>272</v>
       </c>
@@ -36555,7 +36574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="278" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>273</v>
       </c>
@@ -36680,7 +36699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="279" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>274</v>
       </c>
@@ -36805,7 +36824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>275</v>
       </c>
@@ -36930,7 +36949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>276</v>
       </c>
@@ -37055,7 +37074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="282" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>277</v>
       </c>
@@ -37180,7 +37199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="283" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>278</v>
       </c>
@@ -37305,7 +37324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>279</v>
       </c>
@@ -37430,7 +37449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>280</v>
       </c>
@@ -37555,7 +37574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="286" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>281</v>
       </c>
@@ -37680,7 +37699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>282</v>
       </c>
@@ -37805,7 +37824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>283</v>
       </c>
@@ -37930,7 +37949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>284</v>
       </c>
@@ -38055,7 +38074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>285</v>
       </c>
@@ -38180,7 +38199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>286</v>
       </c>
@@ -38305,7 +38324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>287</v>
       </c>
@@ -38430,7 +38449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>288</v>
       </c>
@@ -38555,7 +38574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>289</v>
       </c>
@@ -38680,7 +38699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>290</v>
       </c>
@@ -38805,7 +38824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>291</v>
       </c>
@@ -38930,7 +38949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>292</v>
       </c>
@@ -39055,7 +39074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>293</v>
       </c>
@@ -39180,7 +39199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>294</v>
       </c>
@@ -39305,7 +39324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>295</v>
       </c>
@@ -39430,7 +39449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>296</v>
       </c>
@@ -39555,7 +39574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>297</v>
       </c>
@@ -39680,7 +39699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>298</v>
       </c>
@@ -39805,7 +39824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>299</v>
       </c>
@@ -39930,7 +39949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>300</v>
       </c>
@@ -40055,7 +40074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>301</v>
       </c>
@@ -40180,7 +40199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>302</v>
       </c>
@@ -40305,7 +40324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>303</v>
       </c>
@@ -40430,7 +40449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>304</v>
       </c>
@@ -40555,7 +40574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>305</v>
       </c>
@@ -40680,7 +40699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>306</v>
       </c>
@@ -40805,7 +40824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>307</v>
       </c>
@@ -40930,7 +40949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="313" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>308</v>
       </c>
@@ -41055,7 +41074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>309</v>
       </c>
@@ -41180,7 +41199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="315" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>310</v>
       </c>
@@ -41305,7 +41324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="316" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>311</v>
       </c>
@@ -41430,7 +41449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>312</v>
       </c>
@@ -41555,7 +41574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>313</v>
       </c>
@@ -41680,7 +41699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="319" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>314</v>
       </c>
@@ -41805,7 +41824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="320" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>315</v>
       </c>
@@ -41930,7 +41949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>316</v>
       </c>
@@ -42055,7 +42074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>317</v>
       </c>
@@ -42180,7 +42199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>318</v>
       </c>
@@ -42305,7 +42324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>319</v>
       </c>
@@ -42427,6 +42446,131 @@
         <v>412</v>
       </c>
       <c r="AO324" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C325" s="2">
+        <v>6</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F325" s="2">
+        <v>0</v>
+      </c>
+      <c r="G325" s="2">
+        <v>10</v>
+      </c>
+      <c r="H325" s="2">
+        <v>2250</v>
+      </c>
+      <c r="I325" s="2">
+        <v>200</v>
+      </c>
+      <c r="J325" s="2">
+        <v>200</v>
+      </c>
+      <c r="K325" s="2">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2">
+        <v>0</v>
+      </c>
+      <c r="M325" s="2">
+        <v>90</v>
+      </c>
+      <c r="N325" s="2">
+        <v>0</v>
+      </c>
+      <c r="O325" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P325" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q325" s="2">
+        <v>1</v>
+      </c>
+      <c r="R325" s="2">
+        <v>10</v>
+      </c>
+      <c r="S325" s="2">
+        <v>10</v>
+      </c>
+      <c r="T325" s="2">
+        <v>70</v>
+      </c>
+      <c r="U325" s="2">
+        <v>30</v>
+      </c>
+      <c r="V325" s="2">
+        <v>90</v>
+      </c>
+      <c r="W325" s="2">
+        <v>0</v>
+      </c>
+      <c r="X325" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y325" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF325" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG325" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK325" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL325" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AM325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN325" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO325" s="5">
         <v>-1</v>
       </c>
     </row>
